--- a/Data/EC/NIT-8001365079.xlsx
+++ b/Data/EC/NIT-8001365079.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A419D5F1-46C2-4F47-A614-416813DAC9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E4D3DCA-D896-4869-B3A5-0A234A78ACBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6DCAB824-E6BE-4EB3-B209-0DB0B8364C94}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7D3F6C83-DF2F-46FB-B8A5-9885EA8D0B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,22 +71,22 @@
     <t>ORLANDO ENRIQUE MORALES RIOS</t>
   </si>
   <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
     <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -500,7 +500,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A37FDD-1D08-1316-4135-B8046E8E09D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6160A0FA-5D9E-0122-8F97-36D1EE799B91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -851,7 +851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713C02B5-8246-4ADA-A6A8-A3965661F610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CE8CB1-137F-4051-8407-89076113AE9C}">
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1032,7 +1032,7 @@
         <v>31489</v>
       </c>
       <c r="G16" s="18">
-        <v>787242</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1055,7 +1055,7 @@
         <v>31489</v>
       </c>
       <c r="G17" s="18">
-        <v>787242</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1078,7 +1078,7 @@
         <v>31489</v>
       </c>
       <c r="G18" s="18">
-        <v>787242</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1101,7 +1101,7 @@
         <v>31489</v>
       </c>
       <c r="G19" s="18">
-        <v>787242</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1124,7 +1124,7 @@
         <v>31489</v>
       </c>
       <c r="G20" s="18">
-        <v>787242</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1147,7 +1147,7 @@
         <v>31489</v>
       </c>
       <c r="G21" s="24">
-        <v>787242</v>
+        <v>1423500</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
